--- a/TestScriptWeb/Data/DataExcel/FilmData.xlsx
+++ b/TestScriptWeb/Data/DataExcel/FilmData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 BDCLPM\ExcelFỏUnitTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 BDCLPM\TestScriptWeb\TestScriptWeb\Data\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929E819-29ED-428F-9D4C-ADD6519E99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39BFD6D-12B7-4173-8DDC-73DC029DF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0970A27-C508-4DA6-A2D9-CBFBFCB50415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,193 +34,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>Tên testcase</t>
+  </si>
+  <si>
+    <t>TenPhim</t>
+  </si>
+  <si>
+    <t>TomTat</t>
+  </si>
+  <si>
+    <t>NgayCC</t>
+  </si>
+  <si>
+    <t>ThoiLuong</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>GiaP</t>
+  </si>
+  <si>
+    <t>MaGHT</t>
+  </si>
+  <si>
+    <t>TenGHT</t>
+  </si>
+  <si>
+    <t>ResultAdd</t>
+  </si>
+  <si>
+    <t>ResultUpdate</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Kiểm thử thêm phim nhưng tên có kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>!@#</t>
+  </si>
   <si>
     <t>asd</t>
   </si>
   <si>
-    <t>TenPhim</t>
-  </si>
-  <si>
-    <t>TomTat</t>
-  </si>
-  <si>
-    <t>NgayCC</t>
-  </si>
-  <si>
-    <t>ThoiLuong</t>
-  </si>
-  <si>
-    <t>HinhAnh</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>GiaP</t>
-  </si>
-  <si>
-    <t>!@#</t>
-  </si>
-  <si>
-    <t>MaGHT</t>
-  </si>
-  <si>
     <t>D:\\1. MTKPM\\CNPMNC_REPORT1\\CNPMNC_REPORT1\\img_phim\\test5.png</t>
   </si>
   <si>
-    <t>TenGHT</t>
+    <t>https://www.youtube.com/watch?v=Xw2MEG-FBsE</t>
   </si>
   <si>
     <t>P13</t>
   </si>
   <si>
+    <t>Thêm thành công!</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Kiểm thử thêm phim nhưng tên bị trùng tên</t>
+  </si>
+  <si>
     <t>THE NUN</t>
   </si>
   <si>
-    <t>Tên testcase</t>
-  </si>
-  <si>
-    <t>Kiểm thử thêm phim nhưng tên có kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Kiểm thử thêm phim nhưng tên bị trùng tên</t>
-  </si>
-  <si>
     <t>Kiểm thử thêm phim nhưng tên chỉ có số</t>
   </si>
   <si>
     <t>Kiểm thử thêm phim nhưng tên để trống</t>
   </si>
   <si>
+    <t>Thêm thất bại!</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm ngày công chiếu phim nhưng có chữ</t>
   </si>
   <si>
+    <t>dsad1</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm ngày công chiếu phim nhưng ngày đã qua</t>
   </si>
   <si>
+    <t>dsad2</t>
+  </si>
+  <si>
+    <t>Kiểm thử thêm ngày công chiếu phim nhưng tháng chưa tới</t>
+  </si>
+  <si>
+    <t>dsad3</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm ngày công chiếu phim nhưng năm quá xa</t>
   </si>
   <si>
-    <t>Kiểm thử thêm ngày công chiếu phim nhưng tháng chưa tới</t>
+    <t>dsad4</t>
   </si>
   <si>
     <t>Kiểm thử thêm ngày công chiếu phim nhưng để trống</t>
   </si>
   <si>
+    <t>dsad5</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm thời lượng phim nhưng nhập số 0</t>
   </si>
   <si>
+    <t>dsad6</t>
+  </si>
+  <si>
+    <t>30/3/2024</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm thời lượng phim nhưng nhập số âm</t>
   </si>
   <si>
+    <t>dsad7</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm thời lượng phim nhưng để trông</t>
   </si>
   <si>
+    <t>dsad8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kiểm thử thêm file không phải hình ảnh </t>
   </si>
   <si>
+    <t>dsad9</t>
+  </si>
+  <si>
+    <t>D:\\1. MTKPM\\CNPMNC_REPORT1\\CNPMNC_REPORT1\\img_phim\\test5.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kiểm thử thêm file hình ảnh quá lớn </t>
   </si>
   <si>
+    <t>dsad10</t>
+  </si>
+  <si>
+    <t>D:\\1. MTKPM\\CNPMNC_REPORT1\\CNPMNC_REPORT1\\img_phim\\test6.png</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm file hình ảnh nhưng để trống</t>
   </si>
   <si>
+    <t>dsad11</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm trailer phim nhưng nhập link không đúng định dạng</t>
   </si>
   <si>
+    <t>dsad12</t>
+  </si>
+  <si>
+    <t>adadad</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm trailer phim nhưng nhập số</t>
   </si>
   <si>
+    <t>dsad13</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm trailer phim nhưng để trống</t>
   </si>
   <si>
+    <t>dsad14</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm giá phim nhưng nhập số 0</t>
   </si>
   <si>
+    <t>dsad15</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm giá phim nhưng nhập số âm</t>
   </si>
   <si>
+    <t>dsad16</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm giá phim nhưng để trống</t>
   </si>
   <si>
+    <t>dsad17</t>
+  </si>
+  <si>
     <t>Kiểm thử thêm giới hạn tuổi nhưng để trống</t>
   </si>
   <si>
-    <t>dsad1</t>
-  </si>
-  <si>
-    <t>dsad2</t>
-  </si>
-  <si>
-    <t>dsad3</t>
-  </si>
-  <si>
-    <t>dsad4</t>
-  </si>
-  <si>
-    <t>dsad5</t>
-  </si>
-  <si>
-    <t>dsad6</t>
-  </si>
-  <si>
-    <t>dsad7</t>
-  </si>
-  <si>
-    <t>dsad8</t>
-  </si>
-  <si>
-    <t>dsad9</t>
-  </si>
-  <si>
-    <t>dsad10</t>
-  </si>
-  <si>
-    <t>dsad11</t>
-  </si>
-  <si>
-    <t>dsad12</t>
-  </si>
-  <si>
-    <t>dsad13</t>
-  </si>
-  <si>
-    <t>dsad14</t>
-  </si>
-  <si>
-    <t>dsad15</t>
-  </si>
-  <si>
-    <t>dsad16</t>
-  </si>
-  <si>
-    <t>dsad17</t>
-  </si>
-  <si>
     <t>dsad18</t>
-  </si>
-  <si>
-    <t>30/3/2024</t>
-  </si>
-  <si>
-    <t>D:\\1. MTKPM\\CNPMNC_REPORT1\\CNPMNC_REPORT1\\img_phim\\test5.txt</t>
-  </si>
-  <si>
-    <t>D:\\1. MTKPM\\CNPMNC_REPORT1\\CNPMNC_REPORT1\\img_phim\\test6.png</t>
-  </si>
-  <si>
-    <t>adadad</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Xw2MEG-FBsE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -233,12 +255,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -298,44 +314,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="2" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,27 +668,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68737FA8-CADC-427E-B323-D5070418A107}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="54.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.36328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" customWidth="1"/>
+    <col min="1" max="5" width="31" customWidth="1" style="1"/>
+    <col min="6" max="6" width="43.453125" customWidth="1" style="1"/>
+    <col min="7" max="7" width="54.90625" customWidth="1" style="1"/>
+    <col min="8" max="8" width="31" customWidth="1" style="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1" style="4"/>
+    <col min="10" max="10" width="20.36328125" customWidth="1" style="1"/>
+    <col min="11" max="11" width="20.453125" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" customWidth="1"/>
     <col min="14" max="14" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" ht="21" s="8" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -697,21 +714,30 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="52.2" s="10" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9">
         <v>45649</v>
@@ -720,10 +746,10 @@
         <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>50000</v>
@@ -732,18 +758,27 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="79.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="79.2" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9">
         <v>45650</v>
@@ -752,10 +787,10 @@
         <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
         <v>50000</v>
@@ -764,19 +799,24 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="52.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11">
         <v>1215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9">
         <v>45629</v>
@@ -785,10 +825,10 @@
         <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>50000</v>
@@ -797,17 +837,22 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="52.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9">
         <v>45629</v>
@@ -816,10 +861,10 @@
         <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1">
         <v>50000</v>
@@ -828,31 +873,36 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="52.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1">
         <v>50000</v>
@@ -861,31 +911,36 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="52.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12">
         <v>45629</v>
       </c>
       <c r="E7" s="1">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1">
         <v>50000</v>
@@ -894,28 +949,33 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="52.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12">
         <v>45638</v>
       </c>
       <c r="E8" s="1">
         <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
         <v>50000</v>
@@ -924,31 +984,36 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="52.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12">
         <v>414167</v>
       </c>
       <c r="E9" s="1">
         <v>120</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
         <v>50000</v>
@@ -957,29 +1022,34 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="52.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="1">
         <v>120</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
         <v>50000</v>
@@ -988,31 +1058,36 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="52.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1">
         <v>50000</v>
@@ -1021,29 +1096,31 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="52.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>-123</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1">
         <v>50000</v>
@@ -1052,28 +1129,30 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="52.2">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1">
         <v>50000</v>
@@ -1082,31 +1161,33 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="52.2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1">
         <v>120</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>56</v>
+      <c r="F14" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1">
         <v>50000</v>
@@ -1115,31 +1196,30 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="52.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
         <v>120</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>57</v>
+      <c r="F15" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1">
         <v>50000</v>
@@ -1148,28 +1228,30 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="34.8">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1">
         <v>120</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1">
         <v>50000</v>
@@ -1178,31 +1260,33 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="52.2">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1">
         <v>120</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="H17" s="1">
         <v>50000</v>
@@ -1211,30 +1295,32 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="52.2">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <v>120</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="14">
+        <v>16</v>
+      </c>
+      <c r="G18" s="13">
         <v>123</v>
       </c>
       <c r="H18" s="1">
@@ -1244,28 +1330,30 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="52.2">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1">
         <v>120</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1">
         <v>50000</v>
@@ -1274,127 +1362,135 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="52.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1">
         <v>120</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="14">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="52.2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1">
         <v>120</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="14">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13">
         <v>-50000</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="52.2">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1">
         <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="52.2">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1">
         <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1">
         <v>50000</v>
@@ -1402,45 +1498,42 @@
       <c r="I23" s="4">
         <v>1</v>
       </c>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="K23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="9"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="K24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="K25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="9"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="K26" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1454,6 +1547,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7ed70eb-0c61-4646-b7b1-a8b68591666b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049F6C92AF5C3644A80DF1E10BD11F764" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8aec803aa396bb8741303f67a3b48a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d7ed70eb-0c61-4646-b7b1-a8b68591666b" xmlns:ns4="a62c9d76-3733-4eb5-9282-9be5bfdc8a65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63ff81be6012f112edc9d35393aa4263" ns3:_="" ns4:_="">
     <xsd:import namespace="d7ed70eb-0c61-4646-b7b1-a8b68591666b"/>
@@ -1656,14 +1757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d7ed70eb-0c61-4646-b7b1-a8b68591666b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43FDB9C-4F56-4480-9975-93939D132AA4}">
   <ds:schemaRefs>
@@ -1673,6 +1766,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB4C59C-5811-4754-9D54-7F1C0CF28861}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a62c9d76-3733-4eb5-9282-9be5bfdc8a65"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d7ed70eb-0c61-4646-b7b1-a8b68591666b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD75844-F154-4D7B-B34F-C4E1F96332F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1689,21 +1799,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB4C59C-5811-4754-9D54-7F1C0CF28861}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a62c9d76-3733-4eb5-9282-9be5bfdc8a65"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d7ed70eb-0c61-4646-b7b1-a8b68591666b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>